--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Lrpap1-Lrp8.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Lrpap1-Lrp8.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.24180766511929</v>
+        <v>6.660188000000001</v>
       </c>
       <c r="H2">
-        <v>6.24180766511929</v>
+        <v>19.980564</v>
       </c>
       <c r="I2">
-        <v>0.1470019048577876</v>
+        <v>0.1500148400131262</v>
       </c>
       <c r="J2">
-        <v>0.1470019048577876</v>
+        <v>0.1500148400131261</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.380755612835441</v>
+        <v>1.664391</v>
       </c>
       <c r="N2">
-        <v>0.380755612835441</v>
+        <v>4.993173000000001</v>
       </c>
       <c r="O2">
-        <v>0.1791652897749552</v>
+        <v>0.3990511495040125</v>
       </c>
       <c r="P2">
-        <v>0.1791652897749552</v>
+        <v>0.3990511495040125</v>
       </c>
       <c r="Q2">
-        <v>2.376603302733448</v>
+        <v>11.085156965508</v>
       </c>
       <c r="R2">
-        <v>2.376603302733448</v>
+        <v>99.76641268957202</v>
       </c>
       <c r="S2">
-        <v>0.02633763888131592</v>
+        <v>0.05986359434989854</v>
       </c>
       <c r="T2">
-        <v>0.02633763888131592</v>
+        <v>0.05986359434989853</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.24180766511929</v>
+        <v>6.660188000000001</v>
       </c>
       <c r="H3">
-        <v>6.24180766511929</v>
+        <v>19.980564</v>
       </c>
       <c r="I3">
-        <v>0.1470019048577876</v>
+        <v>0.1500148400131262</v>
       </c>
       <c r="J3">
-        <v>0.1470019048577876</v>
+        <v>0.1500148400131261</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.437491389248888</v>
+        <v>0.437958</v>
       </c>
       <c r="N3">
-        <v>0.437491389248888</v>
+        <v>1.313874</v>
       </c>
       <c r="O3">
-        <v>0.205862419059601</v>
+        <v>0.1050039584054939</v>
       </c>
       <c r="P3">
-        <v>0.205862419059601</v>
+        <v>0.1050039584054938</v>
       </c>
       <c r="Q3">
-        <v>2.730737106837396</v>
+        <v>2.916882616104</v>
       </c>
       <c r="R3">
-        <v>2.730737106837396</v>
+        <v>26.251943544936</v>
       </c>
       <c r="S3">
-        <v>0.03026216774039347</v>
+        <v>0.01575215202094512</v>
       </c>
       <c r="T3">
-        <v>0.03026216774039347</v>
+        <v>0.01575215202094511</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.24180766511929</v>
+        <v>6.660188000000001</v>
       </c>
       <c r="H4">
-        <v>6.24180766511929</v>
+        <v>19.980564</v>
       </c>
       <c r="I4">
-        <v>0.1470019048577876</v>
+        <v>0.1500148400131262</v>
       </c>
       <c r="J4">
-        <v>0.1470019048577876</v>
+        <v>0.1500148400131261</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.715489312237837</v>
+        <v>1.439215333333333</v>
       </c>
       <c r="N4">
-        <v>0.715489312237837</v>
+        <v>4.317646</v>
       </c>
       <c r="O4">
-        <v>0.3366748792049412</v>
+        <v>0.3450634695516061</v>
       </c>
       <c r="P4">
-        <v>0.3366748792049412</v>
+        <v>0.3450634695516061</v>
       </c>
       <c r="Q4">
-        <v>4.46594667343706</v>
+        <v>9.585444692482668</v>
       </c>
       <c r="R4">
-        <v>4.46594667343706</v>
+        <v>86.26900223234401</v>
       </c>
       <c r="S4">
-        <v>0.04949184856089191</v>
+        <v>0.05176464117915842</v>
       </c>
       <c r="T4">
-        <v>0.04949184856089191</v>
+        <v>0.05176464117915841</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.24180766511929</v>
+        <v>6.660188000000001</v>
       </c>
       <c r="H5">
-        <v>6.24180766511929</v>
+        <v>19.980564</v>
       </c>
       <c r="I5">
-        <v>0.1470019048577876</v>
+        <v>0.1500148400131262</v>
       </c>
       <c r="J5">
-        <v>0.1470019048577876</v>
+        <v>0.1500148400131261</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5914276240372009</v>
+        <v>0.6293069999999999</v>
       </c>
       <c r="N5">
-        <v>0.5914276240372009</v>
+        <v>1.887921</v>
       </c>
       <c r="O5">
-        <v>0.2782974119605027</v>
+        <v>0.1508814225388875</v>
       </c>
       <c r="P5">
-        <v>0.2782974119605027</v>
+        <v>0.1508814225388875</v>
       </c>
       <c r="Q5">
-        <v>3.69157747707869</v>
+        <v>4.191302929716</v>
       </c>
       <c r="R5">
-        <v>3.69157747707869</v>
+        <v>37.721726367444</v>
       </c>
       <c r="S5">
-        <v>0.04091024967518635</v>
+        <v>0.0226344524631241</v>
       </c>
       <c r="T5">
-        <v>0.04091024967518635</v>
+        <v>0.0226344524631241</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>16.2588228948378</v>
+        <v>16.410331</v>
       </c>
       <c r="H6">
-        <v>16.2588228948378</v>
+        <v>49.230993</v>
       </c>
       <c r="I6">
-        <v>0.3829143838639711</v>
+        <v>0.3696281815959916</v>
       </c>
       <c r="J6">
-        <v>0.3829143838639711</v>
+        <v>0.3696281815959916</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.380755612835441</v>
+        <v>1.664391</v>
       </c>
       <c r="N6">
-        <v>0.380755612835441</v>
+        <v>4.993173000000001</v>
       </c>
       <c r="O6">
-        <v>0.1791652897749552</v>
+        <v>0.3990511495040125</v>
       </c>
       <c r="P6">
-        <v>0.1791652897749552</v>
+        <v>0.3990511495040125</v>
       </c>
       <c r="Q6">
-        <v>6.190638075306865</v>
+        <v>27.313207223421</v>
       </c>
       <c r="R6">
-        <v>6.190638075306865</v>
+        <v>245.818865010789</v>
       </c>
       <c r="S6">
-        <v>0.06860496654398683</v>
+        <v>0.1475005507549584</v>
       </c>
       <c r="T6">
-        <v>0.06860496654398683</v>
+        <v>0.1475005507549584</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>16.2588228948378</v>
+        <v>16.410331</v>
       </c>
       <c r="H7">
-        <v>16.2588228948378</v>
+        <v>49.230993</v>
       </c>
       <c r="I7">
-        <v>0.3829143838639711</v>
+        <v>0.3696281815959916</v>
       </c>
       <c r="J7">
-        <v>0.3829143838639711</v>
+        <v>0.3696281815959916</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.437491389248888</v>
+        <v>0.437958</v>
       </c>
       <c r="N7">
-        <v>0.437491389248888</v>
+        <v>1.313874</v>
       </c>
       <c r="O7">
-        <v>0.205862419059601</v>
+        <v>0.1050039584054939</v>
       </c>
       <c r="P7">
-        <v>0.205862419059601</v>
+        <v>0.1050039584054938</v>
       </c>
       <c r="Q7">
-        <v>7.113095015814215</v>
+        <v>7.187035744098</v>
       </c>
       <c r="R7">
-        <v>7.113095015814215</v>
+        <v>64.68332169688199</v>
       </c>
       <c r="S7">
-        <v>0.07882768135495374</v>
+        <v>0.03881242220580384</v>
       </c>
       <c r="T7">
-        <v>0.07882768135495374</v>
+        <v>0.03881242220580383</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>16.2588228948378</v>
+        <v>16.410331</v>
       </c>
       <c r="H8">
-        <v>16.2588228948378</v>
+        <v>49.230993</v>
       </c>
       <c r="I8">
-        <v>0.3829143838639711</v>
+        <v>0.3696281815959916</v>
       </c>
       <c r="J8">
-        <v>0.3829143838639711</v>
+        <v>0.3696281815959916</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.715489312237837</v>
+        <v>1.439215333333333</v>
       </c>
       <c r="N8">
-        <v>0.715489312237837</v>
+        <v>4.317646</v>
       </c>
       <c r="O8">
-        <v>0.3366748792049412</v>
+        <v>0.3450634695516061</v>
       </c>
       <c r="P8">
-        <v>0.3366748792049412</v>
+        <v>0.3450634695516061</v>
       </c>
       <c r="Q8">
-        <v>11.63301401082429</v>
+        <v>23.61800000027533</v>
       </c>
       <c r="R8">
-        <v>11.63301401082429</v>
+        <v>212.562000002478</v>
       </c>
       <c r="S8">
-        <v>0.128917653933237</v>
+        <v>0.127545182785564</v>
       </c>
       <c r="T8">
-        <v>0.128917653933237</v>
+        <v>0.127545182785564</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>16.2588228948378</v>
+        <v>16.410331</v>
       </c>
       <c r="H9">
-        <v>16.2588228948378</v>
+        <v>49.230993</v>
       </c>
       <c r="I9">
-        <v>0.3829143838639711</v>
+        <v>0.3696281815959916</v>
       </c>
       <c r="J9">
-        <v>0.3829143838639711</v>
+        <v>0.3696281815959916</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.5914276240372009</v>
+        <v>0.6293069999999999</v>
       </c>
       <c r="N9">
-        <v>0.5914276240372009</v>
+        <v>1.887921</v>
       </c>
       <c r="O9">
-        <v>0.2782974119605027</v>
+        <v>0.1508814225388875</v>
       </c>
       <c r="P9">
-        <v>0.2782974119605027</v>
+        <v>0.1508814225388875</v>
       </c>
       <c r="Q9">
-        <v>9.615916994335565</v>
+        <v>10.327136170617</v>
       </c>
       <c r="R9">
-        <v>9.615916994335565</v>
+        <v>92.94422553555299</v>
       </c>
       <c r="S9">
-        <v>0.1065640820317936</v>
+        <v>0.05577002584966547</v>
       </c>
       <c r="T9">
-        <v>0.1065640820317936</v>
+        <v>0.05577002584966547</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.2214157249612</v>
+        <v>14.478895</v>
       </c>
       <c r="H10">
-        <v>13.2214157249612</v>
+        <v>43.436685</v>
       </c>
       <c r="I10">
-        <v>0.3113798759527877</v>
+        <v>0.3261242951387937</v>
       </c>
       <c r="J10">
-        <v>0.3113798759527877</v>
+        <v>0.3261242951387937</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.380755612835441</v>
+        <v>1.664391</v>
       </c>
       <c r="N10">
-        <v>0.380755612835441</v>
+        <v>4.993173000000001</v>
       </c>
       <c r="O10">
-        <v>0.1791652897749552</v>
+        <v>0.3990511495040125</v>
       </c>
       <c r="P10">
-        <v>0.1791652897749552</v>
+        <v>0.3990511495040125</v>
       </c>
       <c r="Q10">
-        <v>5.034128246909739</v>
+        <v>24.098542527945</v>
       </c>
       <c r="R10">
-        <v>5.034128246909739</v>
+        <v>216.886882751505</v>
       </c>
       <c r="S10">
-        <v>0.05578846570517081</v>
+        <v>0.1301402748563215</v>
       </c>
       <c r="T10">
-        <v>0.05578846570517081</v>
+        <v>0.1301402748563215</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.2214157249612</v>
+        <v>14.478895</v>
       </c>
       <c r="H11">
-        <v>13.2214157249612</v>
+        <v>43.436685</v>
       </c>
       <c r="I11">
-        <v>0.3113798759527877</v>
+        <v>0.3261242951387937</v>
       </c>
       <c r="J11">
-        <v>0.3113798759527877</v>
+        <v>0.3261242951387937</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.437491389248888</v>
+        <v>0.437958</v>
       </c>
       <c r="N11">
-        <v>0.437491389248888</v>
+        <v>1.313874</v>
       </c>
       <c r="O11">
-        <v>0.205862419059601</v>
+        <v>0.1050039584054939</v>
       </c>
       <c r="P11">
-        <v>0.205862419059601</v>
+        <v>0.1050039584054938</v>
       </c>
       <c r="Q11">
-        <v>5.784255533350369</v>
+        <v>6.34114789641</v>
       </c>
       <c r="R11">
-        <v>5.784255533350369</v>
+        <v>57.07033106769</v>
       </c>
       <c r="S11">
-        <v>0.06410141451011934</v>
+        <v>0.0342443419217749</v>
       </c>
       <c r="T11">
-        <v>0.06410141451011934</v>
+        <v>0.03424434192177488</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.2214157249612</v>
+        <v>14.478895</v>
       </c>
       <c r="H12">
-        <v>13.2214157249612</v>
+        <v>43.436685</v>
       </c>
       <c r="I12">
-        <v>0.3113798759527877</v>
+        <v>0.3261242951387937</v>
       </c>
       <c r="J12">
-        <v>0.3113798759527877</v>
+        <v>0.3261242951387937</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.715489312237837</v>
+        <v>1.439215333333333</v>
       </c>
       <c r="N12">
-        <v>0.715489312237837</v>
+        <v>4.317646</v>
       </c>
       <c r="O12">
-        <v>0.3366748792049412</v>
+        <v>0.3450634695516061</v>
       </c>
       <c r="P12">
-        <v>0.3366748792049412</v>
+        <v>0.3450634695516061</v>
       </c>
       <c r="Q12">
-        <v>9.459781643863012</v>
+        <v>20.83824769372333</v>
       </c>
       <c r="R12">
-        <v>9.459781643863012</v>
+        <v>187.54422924351</v>
       </c>
       <c r="S12">
-        <v>0.1048337821232544</v>
+        <v>0.1125335807856641</v>
       </c>
       <c r="T12">
-        <v>0.1048337821232544</v>
+        <v>0.1125335807856641</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.2214157249612</v>
+        <v>14.478895</v>
       </c>
       <c r="H13">
-        <v>13.2214157249612</v>
+        <v>43.436685</v>
       </c>
       <c r="I13">
-        <v>0.3113798759527877</v>
+        <v>0.3261242951387937</v>
       </c>
       <c r="J13">
-        <v>0.3113798759527877</v>
+        <v>0.3261242951387937</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.5914276240372009</v>
+        <v>0.6293069999999999</v>
       </c>
       <c r="N13">
-        <v>0.5914276240372009</v>
+        <v>1.887921</v>
       </c>
       <c r="O13">
-        <v>0.2782974119605027</v>
+        <v>0.1508814225388875</v>
       </c>
       <c r="P13">
-        <v>0.2782974119605027</v>
+        <v>0.1508814225388875</v>
       </c>
       <c r="Q13">
-        <v>7.81951048862189</v>
+        <v>9.111669975764999</v>
       </c>
       <c r="R13">
-        <v>7.81951048862189</v>
+        <v>82.005029781885</v>
       </c>
       <c r="S13">
-        <v>0.08665621361424317</v>
+        <v>0.0492060975750332</v>
       </c>
       <c r="T13">
-        <v>0.08665621361424317</v>
+        <v>0.04920609757503319</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.73868013327153</v>
+        <v>6.847447</v>
       </c>
       <c r="H14">
-        <v>6.73868013327153</v>
+        <v>20.542341</v>
       </c>
       <c r="I14">
-        <v>0.1587038353254535</v>
+        <v>0.1542326832520885</v>
       </c>
       <c r="J14">
-        <v>0.1587038353254535</v>
+        <v>0.1542326832520885</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.380755612835441</v>
+        <v>1.664391</v>
       </c>
       <c r="N14">
-        <v>0.380755612835441</v>
+        <v>4.993173000000001</v>
       </c>
       <c r="O14">
-        <v>0.1791652897749552</v>
+        <v>0.3990511495040125</v>
       </c>
       <c r="P14">
-        <v>0.1791652897749552</v>
+        <v>0.3990511495040125</v>
       </c>
       <c r="Q14">
-        <v>2.565790283845813</v>
+        <v>11.396829159777</v>
       </c>
       <c r="R14">
-        <v>2.565790283845813</v>
+        <v>102.571462437993</v>
       </c>
       <c r="S14">
-        <v>0.02843421864448165</v>
+        <v>0.06154672954283417</v>
       </c>
       <c r="T14">
-        <v>0.02843421864448165</v>
+        <v>0.06154672954283417</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.73868013327153</v>
+        <v>6.847447</v>
       </c>
       <c r="H15">
-        <v>6.73868013327153</v>
+        <v>20.542341</v>
       </c>
       <c r="I15">
-        <v>0.1587038353254535</v>
+        <v>0.1542326832520885</v>
       </c>
       <c r="J15">
-        <v>0.1587038353254535</v>
+        <v>0.1542326832520885</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.437491389248888</v>
+        <v>0.437958</v>
       </c>
       <c r="N15">
-        <v>0.437491389248888</v>
+        <v>1.313874</v>
       </c>
       <c r="O15">
-        <v>0.205862419059601</v>
+        <v>0.1050039584054939</v>
       </c>
       <c r="P15">
-        <v>0.205862419059601</v>
+        <v>0.1050039584054938</v>
       </c>
       <c r="Q15">
-        <v>2.948114533208843</v>
+        <v>2.998894193226</v>
       </c>
       <c r="R15">
-        <v>2.948114533208843</v>
+        <v>26.990047739034</v>
       </c>
       <c r="S15">
-        <v>0.03267115545413441</v>
+        <v>0.01619504225697001</v>
       </c>
       <c r="T15">
-        <v>0.03267115545413441</v>
+        <v>0.01619504225697</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.73868013327153</v>
+        <v>6.847447</v>
       </c>
       <c r="H16">
-        <v>6.73868013327153</v>
+        <v>20.542341</v>
       </c>
       <c r="I16">
-        <v>0.1587038353254535</v>
+        <v>0.1542326832520885</v>
       </c>
       <c r="J16">
-        <v>0.1587038353254535</v>
+        <v>0.1542326832520885</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.715489312237837</v>
+        <v>1.439215333333333</v>
       </c>
       <c r="N16">
-        <v>0.715489312237837</v>
+        <v>4.317646</v>
       </c>
       <c r="O16">
-        <v>0.3366748792049412</v>
+        <v>0.3450634695516061</v>
       </c>
       <c r="P16">
-        <v>0.3366748792049412</v>
+        <v>0.3450634695516061</v>
       </c>
       <c r="Q16">
-        <v>4.821453613945223</v>
+        <v>9.854950716587332</v>
       </c>
       <c r="R16">
-        <v>4.821453613945223</v>
+        <v>88.694556449286</v>
       </c>
       <c r="S16">
-        <v>0.05343159458755793</v>
+        <v>0.05322006480121953</v>
       </c>
       <c r="T16">
-        <v>0.05343159458755793</v>
+        <v>0.05322006480121953</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.73868013327153</v>
+        <v>6.847447</v>
       </c>
       <c r="H17">
-        <v>6.73868013327153</v>
+        <v>20.542341</v>
       </c>
       <c r="I17">
-        <v>0.1587038353254535</v>
+        <v>0.1542326832520885</v>
       </c>
       <c r="J17">
-        <v>0.1587038353254535</v>
+        <v>0.1542326832520885</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.5914276240372009</v>
+        <v>0.6293069999999999</v>
       </c>
       <c r="N17">
-        <v>0.5914276240372009</v>
+        <v>1.887921</v>
       </c>
       <c r="O17">
-        <v>0.2782974119605027</v>
+        <v>0.1508814225388875</v>
       </c>
       <c r="P17">
-        <v>0.2782974119605027</v>
+        <v>0.1508814225388875</v>
       </c>
       <c r="Q17">
-        <v>3.98544158036747</v>
+        <v>4.309146329229</v>
       </c>
       <c r="R17">
-        <v>3.98544158036747</v>
+        <v>38.782316963061</v>
       </c>
       <c r="S17">
-        <v>0.0441668666392795</v>
+        <v>0.02327084665106476</v>
       </c>
       <c r="T17">
-        <v>0.0441668666392795</v>
+        <v>0.02327084665106476</v>
       </c>
     </row>
   </sheetData>
